--- a/Prod_Plan_2.xlsx
+++ b/Prod_Plan_2.xlsx
@@ -19,13 +19,13 @@
     <t>Machine</t>
   </si>
   <si>
-    <t>Order 4 - 20</t>
-  </si>
-  <si>
-    <t>Order 10 - 110</t>
-  </si>
-  <si>
-    <t>Order 3 - 246</t>
+    <t>Order 3 - 26</t>
+  </si>
+  <si>
+    <t>Order 4 - 58</t>
+  </si>
+  <si>
+    <t>Order 9 - 164</t>
   </si>
   <si>
     <t>Order 5 - 40</t>
@@ -34,22 +34,22 @@
     <t>Order 2 - 119</t>
   </si>
   <si>
-    <t>Order 7 - 57</t>
-  </si>
-  <si>
-    <t>Order 9 - 162</t>
-  </si>
-  <si>
     <t>Order 6 - 26</t>
   </si>
   <si>
-    <t>Order 8 - 86</t>
-  </si>
-  <si>
-    <t>Order 1 - 233</t>
-  </si>
-  <si>
-    <t>make span: 246</t>
+    <t>Order 7 - 109</t>
+  </si>
+  <si>
+    <t>Order 1 - 279</t>
+  </si>
+  <si>
+    <t>Order 10 - 70</t>
+  </si>
+  <si>
+    <t>Order 8 - 174</t>
+  </si>
+  <si>
+    <t>make span: 279</t>
   </si>
 </sst>
 </file>
@@ -395,10 +395,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -413,16 +412,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>115</v>
+      </c>
+      <c r="B4">
+        <v>160</v>
+      </c>
+      <c r="C4">
         <v>0</v>
       </c>
-      <c r="B4">
-        <v>127</v>
-      </c>
-      <c r="C4">
-        <v>84</v>
-      </c>
       <c r="D4">
-        <v>13</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -450,7 +449,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -464,15 +463,15 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
+      <c r="C8" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Prod_Plan_2.xlsx
+++ b/Prod_Plan_2.xlsx
@@ -16,40 +16,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>Machine</t>
-  </si>
-  <si>
-    <t>Order 3 - 26</t>
-  </si>
-  <si>
-    <t>Order 4 - 58</t>
-  </si>
-  <si>
-    <t>Order 9 - 164</t>
+    <t>Machines</t>
+  </si>
+  <si>
+    <t>Order 4 - 20</t>
+  </si>
+  <si>
+    <t>Order 9 - 68</t>
+  </si>
+  <si>
+    <t>Order 3 - 94</t>
   </si>
   <si>
     <t>Order 5 - 40</t>
   </si>
   <si>
-    <t>Order 2 - 119</t>
+    <t>Order 2 - 79</t>
+  </si>
+  <si>
+    <t>Order 7 - 57</t>
+  </si>
+  <si>
+    <t>Order 10 - 127</t>
   </si>
   <si>
     <t>Order 6 - 26</t>
   </si>
   <si>
-    <t>Order 7 - 109</t>
-  </si>
-  <si>
-    <t>Order 1 - 279</t>
-  </si>
-  <si>
-    <t>Order 10 - 70</t>
-  </si>
-  <si>
-    <t>Order 8 - 174</t>
-  </si>
-  <si>
-    <t>make span: 279</t>
+    <t>Order 1 - 87</t>
+  </si>
+  <si>
+    <t>Order 8 - 121</t>
+  </si>
+  <si>
+    <t>make span: 127</t>
   </si>
 </sst>
 </file>
@@ -395,9 +395,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -412,16 +410,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="B4">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>105</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -449,7 +447,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -463,15 +461,15 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
+      <c r="D8" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
